--- a/target/test-classes/testdata/SampleTestData.xlsx
+++ b/target/test-classes/testdata/SampleTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Syntax/eclipse-workspace/SyntaxBatchVII/SyntaxHrms/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Syntax/eclipse-workspace/SyntaxBatchVII/CucumberFrameworkBatch7/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6422C-75FD-854D-ADDB-47DCC58C1273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4068EA0-D7F0-CD4A-830C-E14A644F15E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{8AF4A404-313A-6D48-AC57-E27FCF5E34E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,13 +57,22 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>James</t>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Salah</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -464,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -475,18 +484,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
